--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\project\Overall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\project\Algo\Navie Bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9315" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9315" windowHeight="5925" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prime Bank" sheetId="1" r:id="rId1"/>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -845,7 +845,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:G15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,12 +1557,12 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -2143,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2227,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>7581</v>
+        <v>7582</v>
       </c>
       <c r="C3" s="1">
         <v>7581</v>
@@ -2261,6 +2261,36 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -2406,16 +2436,106 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="1">
+        <v>322526</v>
+      </c>
+      <c r="C10" s="1">
+        <v>314565</v>
+      </c>
+      <c r="D10" s="1">
+        <v>314836</v>
+      </c>
+      <c r="E10" s="1">
+        <v>285010</v>
+      </c>
+      <c r="F10" s="1">
+        <v>246331</v>
+      </c>
+      <c r="G10" s="1">
+        <v>208006</v>
+      </c>
+      <c r="H10" s="1">
+        <v>173842</v>
+      </c>
+      <c r="I10" s="1">
+        <v>152963</v>
+      </c>
+      <c r="J10" s="1">
+        <v>132691</v>
+      </c>
+      <c r="K10" s="1">
+        <v>106912</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -2525,6 +2645,36 @@
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
